--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daryl\github\graphic-design-service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FAFDDF6-B3CB-4626-8E97-BD876A2FB2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC129D2-6422-4A34-ABFF-3AB559351FA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CCBB2AAD-7711-4F69-B1F9-E71B6E382CC3}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Graphic</t>
   </si>
@@ -160,6 +159,21 @@
   </si>
   <si>
     <t>all products page</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>….</t>
   </si>
 </sst>
 </file>
@@ -389,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -506,143 +520,182 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07957DCA-706D-4F15-9D22-4D79E617A66F}">
-  <dimension ref="A1:AL81"/>
+  <dimension ref="A1:AY81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AX16" sqref="AX16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,34 +1025,34 @@
     <col min="26" max="93" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C1" s="71" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="Q1" s="72" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="Q1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="AE1" s="44" t="s">
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="AE1" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-    </row>
-    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+    </row>
+    <row r="4" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="73"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -1007,65 +1060,89 @@
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="73" t="s">
+      <c r="J4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="51" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="17"/>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="48"/>
+      <c r="O4" s="67"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="27"/>
       <c r="T4" s="27"/>
-      <c r="U4" s="48" t="s">
+      <c r="U4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="50" t="s">
+      <c r="Y4" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="60" t="s">
+      <c r="AA4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AB4" s="48"/>
+      <c r="AB4" s="67"/>
       <c r="AC4" s="27"/>
       <c r="AD4" s="27"/>
       <c r="AE4" s="27"/>
       <c r="AF4" s="27"/>
       <c r="AG4" s="27"/>
-      <c r="AH4" s="48" t="s">
+      <c r="AH4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="AI4" s="48" t="s">
+      <c r="AI4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="AJ4" s="48" t="s">
+      <c r="AJ4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="48" t="s">
+      <c r="AK4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="50" t="s">
+      <c r="AL4" s="78" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
+      <c r="AN4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="67"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV4" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX4" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY4" s="78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -1073,35 +1150,47 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
       <c r="L5" s="17"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="49"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="69"/>
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
       <c r="R5" s="28"/>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="51"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="49"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="79"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="69"/>
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="28"/>
       <c r="AF5" s="28"/>
       <c r="AG5" s="28"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="51"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="79"/>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="28"/>
+      <c r="AR5" s="28"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="79"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -1114,32 +1203,44 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="17"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="49"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="69"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
       <c r="R6" s="28"/>
       <c r="S6" s="28"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="51"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="49"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="79"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="69"/>
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="28"/>
       <c r="AF6" s="28"/>
       <c r="AG6" s="28"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="51"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="69"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="69"/>
+      <c r="AL6" s="79"/>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="79"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -1167,19 +1268,31 @@
       <c r="AA7" s="39"/>
       <c r="AB7" s="40"/>
       <c r="AC7" s="40"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="58" t="s">
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="86" t="s">
         <v>34</v>
       </c>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="40"/>
       <c r="AL7" s="41"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="2"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -1207,17 +1320,29 @@
       <c r="AA8" s="39"/>
       <c r="AB8" s="40"/>
       <c r="AC8" s="40"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="59"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="84"/>
+      <c r="AG8" s="84"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="87"/>
       <c r="AJ8" s="40"/>
       <c r="AK8" s="40"/>
       <c r="AL8" s="41"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="2"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -1254,8 +1379,20 @@
       <c r="AJ9" s="40"/>
       <c r="AK9" s="40"/>
       <c r="AL9" s="41"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="2"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -1292,8 +1429,22 @@
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="2"/>
-    </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ10" s="94"/>
+      <c r="AR10" s="94"/>
+      <c r="AS10" s="94"/>
+      <c r="AT10" s="94"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="94"/>
+      <c r="AW10" s="95"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="2"/>
+    </row>
+    <row r="11" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1307,11 +1458,11 @@
       <c r="K11" s="16"/>
       <c r="L11" s="17"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="68" t="s">
+      <c r="O11" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
       <c r="R11" s="25"/>
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
@@ -1332,8 +1483,20 @@
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="2"/>
-    </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="96"/>
+      <c r="AQ11" s="97"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="97"/>
+      <c r="AT11" s="97"/>
+      <c r="AU11" s="97"/>
+      <c r="AV11" s="97"/>
+      <c r="AW11" s="98"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="2"/>
+    </row>
+    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1347,9 +1510,9 @@
       <c r="K12" s="16"/>
       <c r="L12" s="17"/>
       <c r="N12" s="30"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
       <c r="R12" s="25"/>
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
@@ -1370,8 +1533,20 @@
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="2"/>
-    </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="99"/>
+      <c r="AQ12" s="100"/>
+      <c r="AR12" s="100"/>
+      <c r="AS12" s="100"/>
+      <c r="AT12" s="100"/>
+      <c r="AU12" s="100"/>
+      <c r="AV12" s="100"/>
+      <c r="AW12" s="101"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="2"/>
+    </row>
+    <row r="13" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1385,9 +1560,9 @@
       <c r="K13" s="16"/>
       <c r="L13" s="17"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
       <c r="R13" s="25"/>
       <c r="S13" s="29"/>
       <c r="T13" s="29"/>
@@ -1405,18 +1580,28 @@
       <c r="AG13" s="42"/>
       <c r="AH13" s="42"/>
       <c r="AI13" s="1"/>
-      <c r="AJ13" s="45" t="s">
+      <c r="AJ13" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="AK13" s="45"/>
+      <c r="AK13" s="89"/>
       <c r="AL13" s="2"/>
-    </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN13" s="22"/>
+      <c r="AP13" s="102"/>
+      <c r="AQ13" s="102"/>
+      <c r="AR13" s="102"/>
+      <c r="AS13" s="102"/>
+      <c r="AT13" s="102"/>
+      <c r="AU13" s="102"/>
+      <c r="AV13" s="102"/>
+      <c r="AW13" s="102"/>
+      <c r="AY13" s="2"/>
+    </row>
+    <row r="14" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="81"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="11"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
@@ -1427,17 +1612,17 @@
       <c r="K14" s="7"/>
       <c r="L14" s="20"/>
       <c r="N14" s="30"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
       <c r="R14" s="25"/>
       <c r="S14" s="29"/>
-      <c r="T14" s="69" t="s">
+      <c r="T14" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
       <c r="X14" s="29"/>
       <c r="Y14" s="26"/>
       <c r="AA14" s="22"/>
@@ -1449,14 +1634,24 @@
       <c r="AG14" s="42"/>
       <c r="AH14" s="42"/>
       <c r="AI14" s="1"/>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="45"/>
+      <c r="AJ14" s="89"/>
+      <c r="AK14" s="89"/>
       <c r="AL14" s="2"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN14" s="22"/>
+      <c r="AP14" s="102"/>
+      <c r="AQ14" s="102"/>
+      <c r="AR14" s="102"/>
+      <c r="AS14" s="102"/>
+      <c r="AT14" s="102"/>
+      <c r="AU14" s="102"/>
+      <c r="AV14" s="102"/>
+      <c r="AW14" s="102"/>
+      <c r="AY14" s="2"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="12"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -1472,10 +1667,10 @@
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="29"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
       <c r="X15" s="29"/>
       <c r="Y15" s="26"/>
       <c r="AA15" s="22"/>
@@ -1490,11 +1685,21 @@
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="2"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN15" s="22"/>
+      <c r="AP15" s="102"/>
+      <c r="AQ15" s="102"/>
+      <c r="AR15" s="102"/>
+      <c r="AS15" s="102"/>
+      <c r="AT15" s="102"/>
+      <c r="AU15" s="102"/>
+      <c r="AV15" s="102"/>
+      <c r="AW15" s="102"/>
+      <c r="AY15" s="2"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="12"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -1507,17 +1712,17 @@
       <c r="K16" s="10"/>
       <c r="L16" s="20"/>
       <c r="N16" s="24"/>
-      <c r="O16" s="70" t="s">
+      <c r="O16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
       <c r="R16" s="25"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
       <c r="X16" s="29"/>
       <c r="Y16" s="26"/>
       <c r="AA16" s="22"/>
@@ -1529,13 +1734,25 @@
       <c r="AG16" s="42"/>
       <c r="AH16" s="42"/>
       <c r="AI16" s="1"/>
-      <c r="AJ16" s="46" t="s">
+      <c r="AJ16" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AK16" s="46"/>
+      <c r="AK16" s="90"/>
       <c r="AL16" s="2"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN16" s="22"/>
+      <c r="AP16" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ16" s="94"/>
+      <c r="AR16" s="94"/>
+      <c r="AS16" s="94"/>
+      <c r="AT16" s="94"/>
+      <c r="AU16" s="94"/>
+      <c r="AV16" s="94"/>
+      <c r="AW16" s="95"/>
+      <c r="AY16" s="2"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
@@ -1549,9 +1766,9 @@
       <c r="K17" s="10"/>
       <c r="L17" s="20"/>
       <c r="N17" s="24"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
       <c r="R17" s="25"/>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -1569,11 +1786,21 @@
       <c r="AG17" s="42"/>
       <c r="AH17" s="42"/>
       <c r="AI17" s="1"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="46"/>
+      <c r="AJ17" s="90"/>
+      <c r="AK17" s="90"/>
       <c r="AL17" s="2"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN17" s="22"/>
+      <c r="AP17" s="96"/>
+      <c r="AQ17" s="97"/>
+      <c r="AR17" s="97"/>
+      <c r="AS17" s="97"/>
+      <c r="AT17" s="97"/>
+      <c r="AU17" s="97"/>
+      <c r="AV17" s="97"/>
+      <c r="AW17" s="98"/>
+      <c r="AY17" s="2"/>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -1587,11 +1814,11 @@
       <c r="K18" s="10"/>
       <c r="L18" s="20"/>
       <c r="N18" s="24"/>
-      <c r="O18" s="70" t="s">
+      <c r="O18" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
       <c r="R18" s="25"/>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -1609,19 +1836,29 @@
       <c r="AG18" s="42"/>
       <c r="AH18" s="42"/>
       <c r="AI18" s="1"/>
-      <c r="AJ18" s="46" t="s">
+      <c r="AJ18" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="AK18" s="46"/>
+      <c r="AK18" s="90"/>
       <c r="AL18" s="2"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN18" s="22"/>
+      <c r="AP18" s="99"/>
+      <c r="AQ18" s="100"/>
+      <c r="AR18" s="100"/>
+      <c r="AS18" s="100"/>
+      <c r="AT18" s="100"/>
+      <c r="AU18" s="100"/>
+      <c r="AV18" s="100"/>
+      <c r="AW18" s="101"/>
+      <c r="AY18" s="2"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="8"/>
@@ -1631,9 +1868,9 @@
       <c r="K19" s="10"/>
       <c r="L19" s="20"/>
       <c r="N19" s="24"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
       <c r="R19" s="25"/>
       <c r="S19" s="29"/>
       <c r="T19" s="29"/>
@@ -1651,24 +1888,34 @@
       <c r="AG19" s="42"/>
       <c r="AH19" s="42"/>
       <c r="AI19" s="1"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
+      <c r="AJ19" s="90"/>
+      <c r="AK19" s="90"/>
       <c r="AL19" s="2"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN19" s="22"/>
+      <c r="AP19" s="102"/>
+      <c r="AQ19" s="102"/>
+      <c r="AR19" s="102"/>
+      <c r="AS19" s="102"/>
+      <c r="AT19" s="102"/>
+      <c r="AU19" s="102"/>
+      <c r="AV19" s="102"/>
+      <c r="AW19" s="102"/>
+      <c r="AY19" s="2"/>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="84" t="s">
+      <c r="G20" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="20"/>
       <c r="N20" s="24"/>
       <c r="O20" s="25"/>
@@ -1691,31 +1938,41 @@
       <c r="AG20" s="42"/>
       <c r="AH20" s="42"/>
       <c r="AI20" s="1"/>
-      <c r="AJ20" s="46" t="s">
+      <c r="AJ20" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="AK20" s="46"/>
+      <c r="AK20" s="90"/>
       <c r="AL20" s="2"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN20" s="22"/>
+      <c r="AP20" s="102"/>
+      <c r="AQ20" s="102"/>
+      <c r="AR20" s="102"/>
+      <c r="AS20" s="102"/>
+      <c r="AT20" s="102"/>
+      <c r="AU20" s="102"/>
+      <c r="AV20" s="102"/>
+      <c r="AW20" s="102"/>
+      <c r="AY20" s="2"/>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="12"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="86"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="20"/>
       <c r="N21" s="24"/>
-      <c r="O21" s="62" t="s">
+      <c r="O21" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="64"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="72"/>
       <c r="R21" s="25"/>
       <c r="S21" s="29"/>
       <c r="T21" s="29"/>
@@ -1733,29 +1990,41 @@
       <c r="AG21" s="42"/>
       <c r="AH21" s="42"/>
       <c r="AI21" s="1"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46"/>
+      <c r="AJ21" s="90"/>
+      <c r="AK21" s="90"/>
       <c r="AL21" s="2"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN21" s="22"/>
+      <c r="AP21" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ21" s="94"/>
+      <c r="AR21" s="94"/>
+      <c r="AS21" s="94"/>
+      <c r="AT21" s="94"/>
+      <c r="AU21" s="94"/>
+      <c r="AV21" s="94"/>
+      <c r="AW21" s="95"/>
+      <c r="AY21" s="2"/>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="86"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="20"/>
       <c r="N22" s="24"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="67"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="75"/>
       <c r="R22" s="25"/>
       <c r="S22" s="29"/>
       <c r="T22" s="29"/>
@@ -1776,19 +2045,29 @@
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="2"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN22" s="22"/>
+      <c r="AP22" s="96"/>
+      <c r="AQ22" s="97"/>
+      <c r="AR22" s="97"/>
+      <c r="AS22" s="97"/>
+      <c r="AT22" s="97"/>
+      <c r="AU22" s="97"/>
+      <c r="AV22" s="97"/>
+      <c r="AW22" s="98"/>
+      <c r="AY22" s="2"/>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
       <c r="L23" s="20"/>
       <c r="N23" s="24"/>
       <c r="O23" s="25"/>
@@ -1811,26 +2090,36 @@
       <c r="AG23" s="42"/>
       <c r="AH23" s="42"/>
       <c r="AI23" s="1"/>
-      <c r="AJ23" s="46" t="s">
+      <c r="AJ23" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="AK23" s="47" t="s">
+      <c r="AK23" s="88" t="s">
         <v>39</v>
       </c>
       <c r="AL23" s="2"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN23" s="22"/>
+      <c r="AP23" s="99"/>
+      <c r="AQ23" s="100"/>
+      <c r="AR23" s="100"/>
+      <c r="AS23" s="100"/>
+      <c r="AT23" s="100"/>
+      <c r="AU23" s="100"/>
+      <c r="AV23" s="100"/>
+      <c r="AW23" s="101"/>
+      <c r="AY23" s="2"/>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="12"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="86"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
       <c r="L24" s="20"/>
       <c r="N24" s="24"/>
       <c r="O24" s="25"/>
@@ -1853,11 +2142,21 @@
       <c r="AG24" s="42"/>
       <c r="AH24" s="42"/>
       <c r="AI24" s="1"/>
-      <c r="AJ24" s="46"/>
-      <c r="AK24" s="47"/>
+      <c r="AJ24" s="90"/>
+      <c r="AK24" s="88"/>
       <c r="AL24" s="2"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN24" s="22"/>
+      <c r="AP24" s="102"/>
+      <c r="AQ24" s="102"/>
+      <c r="AR24" s="102"/>
+      <c r="AS24" s="102"/>
+      <c r="AT24" s="102"/>
+      <c r="AU24" s="102"/>
+      <c r="AV24" s="102"/>
+      <c r="AW24" s="102"/>
+      <c r="AY24" s="2"/>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="13"/>
       <c r="C25" s="15" t="s">
@@ -1866,11 +2165,11 @@
       <c r="D25" s="12"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
       <c r="L25" s="20"/>
       <c r="N25" s="24"/>
       <c r="O25" s="25"/>
@@ -1896,19 +2195,29 @@
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="2"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN25" s="22"/>
+      <c r="AP25" s="102"/>
+      <c r="AQ25" s="102"/>
+      <c r="AR25" s="102"/>
+      <c r="AS25" s="102"/>
+      <c r="AT25" s="102"/>
+      <c r="AU25" s="102"/>
+      <c r="AV25" s="102"/>
+      <c r="AW25" s="102"/>
+      <c r="AY25" s="2"/>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="12"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
       <c r="L26" s="20"/>
       <c r="N26" s="24"/>
       <c r="O26" s="25"/>
@@ -1934,19 +2243,31 @@
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="2"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN26" s="22"/>
+      <c r="AP26" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ26" s="94"/>
+      <c r="AR26" s="94"/>
+      <c r="AS26" s="94"/>
+      <c r="AT26" s="94"/>
+      <c r="AU26" s="94"/>
+      <c r="AV26" s="94"/>
+      <c r="AW26" s="95"/>
+      <c r="AY26" s="2"/>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="12"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="89"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
       <c r="L27" s="20"/>
       <c r="N27" s="24"/>
       <c r="O27" s="25"/>
@@ -1972,14 +2293,24 @@
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="2"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN27" s="22"/>
+      <c r="AP27" s="96"/>
+      <c r="AQ27" s="97"/>
+      <c r="AR27" s="97"/>
+      <c r="AS27" s="97"/>
+      <c r="AT27" s="97"/>
+      <c r="AU27" s="97"/>
+      <c r="AV27" s="97"/>
+      <c r="AW27" s="98"/>
+      <c r="AY27" s="2"/>
+    </row>
+    <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -1996,11 +2327,11 @@
       <c r="S28" s="29"/>
       <c r="T28" s="29"/>
       <c r="U28" s="25"/>
-      <c r="V28" s="68" t="s">
+      <c r="V28" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
       <c r="Y28" s="26"/>
       <c r="AA28" s="22"/>
       <c r="AB28" s="42"/>
@@ -2011,13 +2342,23 @@
       <c r="AG28" s="42"/>
       <c r="AH28" s="42"/>
       <c r="AI28" s="1"/>
-      <c r="AJ28" s="45" t="s">
+      <c r="AJ28" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="AK28" s="45"/>
+      <c r="AK28" s="89"/>
       <c r="AL28" s="2"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN28" s="22"/>
+      <c r="AP28" s="96"/>
+      <c r="AQ28" s="97"/>
+      <c r="AR28" s="97"/>
+      <c r="AS28" s="97"/>
+      <c r="AT28" s="97"/>
+      <c r="AU28" s="97"/>
+      <c r="AV28" s="97"/>
+      <c r="AW28" s="98"/>
+      <c r="AY28" s="2"/>
+    </row>
+    <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2038,9 +2379,9 @@
       <c r="S29" s="29"/>
       <c r="T29" s="29"/>
       <c r="U29" s="25"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="68"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
       <c r="Y29" s="26"/>
       <c r="AA29" s="22"/>
       <c r="AB29" s="42"/>
@@ -2051,11 +2392,21 @@
       <c r="AG29" s="42"/>
       <c r="AH29" s="42"/>
       <c r="AI29" s="1"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
+      <c r="AJ29" s="89"/>
+      <c r="AK29" s="89"/>
       <c r="AL29" s="2"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN29" s="22"/>
+      <c r="AP29" s="96"/>
+      <c r="AQ29" s="97"/>
+      <c r="AR29" s="97"/>
+      <c r="AS29" s="97"/>
+      <c r="AT29" s="97"/>
+      <c r="AU29" s="97"/>
+      <c r="AV29" s="97"/>
+      <c r="AW29" s="98"/>
+      <c r="AY29" s="2"/>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -2076,9 +2427,9 @@
       <c r="S30" s="29"/>
       <c r="T30" s="29"/>
       <c r="U30" s="25"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
       <c r="Y30" s="26"/>
       <c r="AA30" s="22"/>
       <c r="AB30" s="42"/>
@@ -2092,8 +2443,18 @@
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="2"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN30" s="22"/>
+      <c r="AP30" s="96"/>
+      <c r="AQ30" s="97"/>
+      <c r="AR30" s="97"/>
+      <c r="AS30" s="97"/>
+      <c r="AT30" s="97"/>
+      <c r="AU30" s="97"/>
+      <c r="AV30" s="97"/>
+      <c r="AW30" s="98"/>
+      <c r="AY30" s="2"/>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -2114,9 +2475,9 @@
       <c r="S31" s="29"/>
       <c r="T31" s="29"/>
       <c r="U31" s="25"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
       <c r="Y31" s="26"/>
       <c r="AA31" s="22"/>
       <c r="AB31" s="42"/>
@@ -2127,13 +2488,23 @@
       <c r="AG31" s="42"/>
       <c r="AH31" s="42"/>
       <c r="AI31" s="1"/>
-      <c r="AJ31" s="46" t="s">
+      <c r="AJ31" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AK31" s="46"/>
+      <c r="AK31" s="90"/>
       <c r="AL31" s="2"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN31" s="22"/>
+      <c r="AP31" s="96"/>
+      <c r="AQ31" s="97"/>
+      <c r="AR31" s="97"/>
+      <c r="AS31" s="97"/>
+      <c r="AT31" s="97"/>
+      <c r="AU31" s="97"/>
+      <c r="AV31" s="97"/>
+      <c r="AW31" s="98"/>
+      <c r="AY31" s="2"/>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -2167,11 +2538,21 @@
       <c r="AG32" s="42"/>
       <c r="AH32" s="42"/>
       <c r="AI32" s="1"/>
-      <c r="AJ32" s="46"/>
-      <c r="AK32" s="46"/>
+      <c r="AJ32" s="90"/>
+      <c r="AK32" s="90"/>
       <c r="AL32" s="2"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN32" s="22"/>
+      <c r="AP32" s="96"/>
+      <c r="AQ32" s="97"/>
+      <c r="AR32" s="97"/>
+      <c r="AS32" s="97"/>
+      <c r="AT32" s="97"/>
+      <c r="AU32" s="97"/>
+      <c r="AV32" s="97"/>
+      <c r="AW32" s="98"/>
+      <c r="AY32" s="2"/>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2186,19 +2567,19 @@
       <c r="L33" s="3"/>
       <c r="N33" s="24"/>
       <c r="O33" s="29"/>
-      <c r="P33" s="69" t="s">
+      <c r="P33" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
       <c r="S33" s="29"/>
       <c r="T33" s="29"/>
       <c r="U33" s="25"/>
-      <c r="V33" s="70" t="s">
+      <c r="V33" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="W33" s="70"/>
-      <c r="X33" s="70"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
       <c r="Y33" s="26"/>
       <c r="AA33" s="22"/>
       <c r="AB33" s="42"/>
@@ -2209,13 +2590,23 @@
       <c r="AG33" s="42"/>
       <c r="AH33" s="42"/>
       <c r="AI33" s="1"/>
-      <c r="AJ33" s="46" t="s">
+      <c r="AJ33" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="AK33" s="46"/>
+      <c r="AK33" s="90"/>
       <c r="AL33" s="2"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN33" s="22"/>
+      <c r="AP33" s="96"/>
+      <c r="AQ33" s="97"/>
+      <c r="AR33" s="97"/>
+      <c r="AS33" s="97"/>
+      <c r="AT33" s="97"/>
+      <c r="AU33" s="97"/>
+      <c r="AV33" s="97"/>
+      <c r="AW33" s="98"/>
+      <c r="AY33" s="2"/>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2230,15 +2621,15 @@
       <c r="L34" s="3"/>
       <c r="N34" s="24"/>
       <c r="O34" s="29"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
-      <c r="R34" s="69"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
       <c r="S34" s="29"/>
       <c r="T34" s="29"/>
       <c r="U34" s="25"/>
-      <c r="V34" s="70"/>
-      <c r="W34" s="70"/>
-      <c r="X34" s="70"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
       <c r="Y34" s="26"/>
       <c r="AA34" s="22"/>
       <c r="AB34" s="42"/>
@@ -2249,11 +2640,21 @@
       <c r="AG34" s="42"/>
       <c r="AH34" s="42"/>
       <c r="AI34" s="1"/>
-      <c r="AJ34" s="46"/>
-      <c r="AK34" s="46"/>
+      <c r="AJ34" s="90"/>
+      <c r="AK34" s="90"/>
       <c r="AL34" s="2"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN34" s="22"/>
+      <c r="AP34" s="96"/>
+      <c r="AQ34" s="97"/>
+      <c r="AR34" s="97"/>
+      <c r="AS34" s="97"/>
+      <c r="AT34" s="97"/>
+      <c r="AU34" s="97"/>
+      <c r="AV34" s="97"/>
+      <c r="AW34" s="98"/>
+      <c r="AY34" s="2"/>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2268,17 +2669,17 @@
       <c r="L35" s="3"/>
       <c r="N35" s="24"/>
       <c r="O35" s="29"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
       <c r="S35" s="29"/>
       <c r="T35" s="29"/>
       <c r="U35" s="25"/>
-      <c r="V35" s="70" t="s">
+      <c r="V35" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="W35" s="70"/>
-      <c r="X35" s="70"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
       <c r="Y35" s="26"/>
       <c r="AA35" s="22"/>
       <c r="AB35" s="42"/>
@@ -2289,13 +2690,23 @@
       <c r="AG35" s="42"/>
       <c r="AH35" s="42"/>
       <c r="AI35" s="1"/>
-      <c r="AJ35" s="46" t="s">
+      <c r="AJ35" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="AK35" s="46"/>
+      <c r="AK35" s="90"/>
       <c r="AL35" s="2"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN35" s="22"/>
+      <c r="AP35" s="96"/>
+      <c r="AQ35" s="97"/>
+      <c r="AR35" s="97"/>
+      <c r="AS35" s="97"/>
+      <c r="AT35" s="97"/>
+      <c r="AU35" s="97"/>
+      <c r="AV35" s="97"/>
+      <c r="AW35" s="98"/>
+      <c r="AY35" s="2"/>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2316,9 +2727,9 @@
       <c r="S36" s="29"/>
       <c r="T36" s="29"/>
       <c r="U36" s="25"/>
-      <c r="V36" s="70"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="70"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
       <c r="Y36" s="26"/>
       <c r="AA36" s="22"/>
       <c r="AB36" s="42"/>
@@ -2329,11 +2740,21 @@
       <c r="AG36" s="42"/>
       <c r="AH36" s="42"/>
       <c r="AI36" s="1"/>
-      <c r="AJ36" s="46"/>
-      <c r="AK36" s="46"/>
+      <c r="AJ36" s="90"/>
+      <c r="AK36" s="90"/>
       <c r="AL36" s="2"/>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN36" s="22"/>
+      <c r="AP36" s="96"/>
+      <c r="AQ36" s="97"/>
+      <c r="AR36" s="97"/>
+      <c r="AS36" s="97"/>
+      <c r="AT36" s="97"/>
+      <c r="AU36" s="97"/>
+      <c r="AV36" s="97"/>
+      <c r="AW36" s="98"/>
+      <c r="AY36" s="2"/>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2370,8 +2791,18 @@
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="2"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN37" s="22"/>
+      <c r="AP37" s="96"/>
+      <c r="AQ37" s="97"/>
+      <c r="AR37" s="97"/>
+      <c r="AS37" s="97"/>
+      <c r="AT37" s="97"/>
+      <c r="AU37" s="97"/>
+      <c r="AV37" s="97"/>
+      <c r="AW37" s="98"/>
+      <c r="AY37" s="2"/>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2392,11 +2823,11 @@
       <c r="S38" s="29"/>
       <c r="T38" s="29"/>
       <c r="U38" s="25"/>
-      <c r="V38" s="62" t="s">
+      <c r="V38" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="W38" s="63"/>
-      <c r="X38" s="64"/>
+      <c r="W38" s="71"/>
+      <c r="X38" s="72"/>
       <c r="Y38" s="26"/>
       <c r="AA38" s="22"/>
       <c r="AB38" s="42"/>
@@ -2407,15 +2838,25 @@
       <c r="AG38" s="42"/>
       <c r="AH38" s="42"/>
       <c r="AI38" s="1"/>
-      <c r="AJ38" s="46" t="s">
+      <c r="AJ38" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="AK38" s="47" t="s">
+      <c r="AK38" s="88" t="s">
         <v>39</v>
       </c>
       <c r="AL38" s="2"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN38" s="22"/>
+      <c r="AP38" s="96"/>
+      <c r="AQ38" s="97"/>
+      <c r="AR38" s="97"/>
+      <c r="AS38" s="97"/>
+      <c r="AT38" s="97"/>
+      <c r="AU38" s="97"/>
+      <c r="AV38" s="97"/>
+      <c r="AW38" s="98"/>
+      <c r="AY38" s="2"/>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2436,9 +2877,9 @@
       <c r="S39" s="29"/>
       <c r="T39" s="29"/>
       <c r="U39" s="25"/>
-      <c r="V39" s="65"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="67"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="75"/>
       <c r="Y39" s="26"/>
       <c r="AA39" s="22"/>
       <c r="AB39" s="42"/>
@@ -2449,11 +2890,21 @@
       <c r="AG39" s="42"/>
       <c r="AH39" s="42"/>
       <c r="AI39" s="1"/>
-      <c r="AJ39" s="46"/>
-      <c r="AK39" s="47"/>
+      <c r="AJ39" s="90"/>
+      <c r="AK39" s="88"/>
       <c r="AL39" s="2"/>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN39" s="22"/>
+      <c r="AP39" s="96"/>
+      <c r="AQ39" s="97"/>
+      <c r="AR39" s="97"/>
+      <c r="AS39" s="97"/>
+      <c r="AT39" s="97"/>
+      <c r="AU39" s="97"/>
+      <c r="AV39" s="97"/>
+      <c r="AW39" s="98"/>
+      <c r="AY39" s="2"/>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2490,8 +2941,18 @@
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="2"/>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN40" s="22"/>
+      <c r="AP40" s="96"/>
+      <c r="AQ40" s="97"/>
+      <c r="AR40" s="97"/>
+      <c r="AS40" s="97"/>
+      <c r="AT40" s="97"/>
+      <c r="AU40" s="97"/>
+      <c r="AV40" s="97"/>
+      <c r="AW40" s="98"/>
+      <c r="AY40" s="2"/>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2528,8 +2989,18 @@
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN41" s="22"/>
+      <c r="AP41" s="96"/>
+      <c r="AQ41" s="97"/>
+      <c r="AR41" s="97"/>
+      <c r="AS41" s="97"/>
+      <c r="AT41" s="97"/>
+      <c r="AU41" s="97"/>
+      <c r="AV41" s="97"/>
+      <c r="AW41" s="98"/>
+      <c r="AY41" s="2"/>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2566,8 +3037,18 @@
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN42" s="22"/>
+      <c r="AP42" s="99"/>
+      <c r="AQ42" s="100"/>
+      <c r="AR42" s="100"/>
+      <c r="AS42" s="100"/>
+      <c r="AT42" s="100"/>
+      <c r="AU42" s="100"/>
+      <c r="AV42" s="100"/>
+      <c r="AW42" s="101"/>
+      <c r="AY42" s="2"/>
+    </row>
+    <row r="43" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2601,13 +3082,15 @@
       <c r="AG43" s="42"/>
       <c r="AH43" s="42"/>
       <c r="AI43" s="1"/>
-      <c r="AJ43" s="45" t="s">
+      <c r="AJ43" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="AK43" s="45"/>
+      <c r="AK43" s="89"/>
       <c r="AL43" s="2"/>
-    </row>
-    <row r="44" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN43" s="22"/>
+      <c r="AY43" s="2"/>
+    </row>
+    <row r="44" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2621,11 +3104,11 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="N44" s="30"/>
-      <c r="O44" s="68" t="s">
+      <c r="O44" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="68"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
       <c r="R44" s="25"/>
       <c r="S44" s="29"/>
       <c r="T44" s="29"/>
@@ -2643,11 +3126,13 @@
       <c r="AG44" s="42"/>
       <c r="AH44" s="42"/>
       <c r="AI44" s="1"/>
-      <c r="AJ44" s="45"/>
-      <c r="AK44" s="45"/>
+      <c r="AJ44" s="89"/>
+      <c r="AK44" s="89"/>
       <c r="AL44" s="2"/>
-    </row>
-    <row r="45" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN44" s="22"/>
+      <c r="AY44" s="2"/>
+    </row>
+    <row r="45" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2661,9 +3146,9 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="N45" s="30"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="68"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
       <c r="R45" s="25"/>
       <c r="S45" s="29"/>
       <c r="T45" s="29"/>
@@ -2684,8 +3169,10 @@
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
       <c r="AL45" s="2"/>
-    </row>
-    <row r="46" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN45" s="22"/>
+      <c r="AY45" s="2"/>
+    </row>
+    <row r="46" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2699,9 +3186,9 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="N46" s="30"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="68"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
       <c r="R46" s="25"/>
       <c r="S46" s="29"/>
       <c r="T46" s="29"/>
@@ -2719,13 +3206,15 @@
       <c r="AG46" s="42"/>
       <c r="AH46" s="42"/>
       <c r="AI46" s="1"/>
-      <c r="AJ46" s="46" t="s">
+      <c r="AJ46" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AK46" s="46"/>
+      <c r="AK46" s="90"/>
       <c r="AL46" s="2"/>
-    </row>
-    <row r="47" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN46" s="22"/>
+      <c r="AY46" s="2"/>
+    </row>
+    <row r="47" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2739,17 +3228,17 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="N47" s="30"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
-      <c r="Q47" s="68"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
       <c r="R47" s="25"/>
       <c r="S47" s="29"/>
-      <c r="T47" s="69" t="s">
+      <c r="T47" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="U47" s="69"/>
-      <c r="V47" s="69"/>
-      <c r="W47" s="69"/>
+      <c r="U47" s="76"/>
+      <c r="V47" s="76"/>
+      <c r="W47" s="76"/>
       <c r="X47" s="29"/>
       <c r="Y47" s="26"/>
       <c r="AA47" s="22"/>
@@ -2761,11 +3250,13 @@
       <c r="AG47" s="42"/>
       <c r="AH47" s="42"/>
       <c r="AI47" s="1"/>
-      <c r="AJ47" s="46"/>
-      <c r="AK47" s="46"/>
+      <c r="AJ47" s="90"/>
+      <c r="AK47" s="90"/>
       <c r="AL47" s="2"/>
-    </row>
-    <row r="48" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN47" s="22"/>
+      <c r="AY47" s="2"/>
+    </row>
+    <row r="48" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2784,10 +3275,10 @@
       <c r="Q48" s="25"/>
       <c r="R48" s="25"/>
       <c r="S48" s="29"/>
-      <c r="T48" s="69"/>
-      <c r="U48" s="69"/>
-      <c r="V48" s="69"/>
-      <c r="W48" s="69"/>
+      <c r="T48" s="76"/>
+      <c r="U48" s="76"/>
+      <c r="V48" s="76"/>
+      <c r="W48" s="76"/>
       <c r="X48" s="29"/>
       <c r="Y48" s="26"/>
       <c r="AA48" s="22"/>
@@ -2799,13 +3290,15 @@
       <c r="AG48" s="42"/>
       <c r="AH48" s="42"/>
       <c r="AI48" s="1"/>
-      <c r="AJ48" s="46" t="s">
+      <c r="AJ48" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="AK48" s="46"/>
+      <c r="AK48" s="90"/>
       <c r="AL48" s="2"/>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN48" s="22"/>
+      <c r="AY48" s="2"/>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2819,17 +3312,17 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="N49" s="24"/>
-      <c r="O49" s="70" t="s">
+      <c r="O49" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
       <c r="R49" s="25"/>
       <c r="S49" s="29"/>
-      <c r="T49" s="69"/>
-      <c r="U49" s="69"/>
-      <c r="V49" s="69"/>
-      <c r="W49" s="69"/>
+      <c r="T49" s="76"/>
+      <c r="U49" s="76"/>
+      <c r="V49" s="76"/>
+      <c r="W49" s="76"/>
       <c r="X49" s="29"/>
       <c r="Y49" s="26"/>
       <c r="AA49" s="22"/>
@@ -2841,11 +3334,13 @@
       <c r="AG49" s="42"/>
       <c r="AH49" s="42"/>
       <c r="AI49" s="1"/>
-      <c r="AJ49" s="46"/>
-      <c r="AK49" s="46"/>
+      <c r="AJ49" s="90"/>
+      <c r="AK49" s="90"/>
       <c r="AL49" s="2"/>
-    </row>
-    <row r="50" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN49" s="22"/>
+      <c r="AY49" s="2"/>
+    </row>
+    <row r="50" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2859,9 +3354,9 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="N50" s="24"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="70"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
       <c r="R50" s="25"/>
       <c r="S50" s="29"/>
       <c r="T50" s="29"/>
@@ -2879,13 +3374,19 @@
       <c r="AG50" s="42"/>
       <c r="AH50" s="42"/>
       <c r="AI50" s="1"/>
-      <c r="AJ50" s="46" t="s">
+      <c r="AJ50" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="AK50" s="46"/>
+      <c r="AK50" s="90"/>
       <c r="AL50" s="2"/>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN50" s="22"/>
+      <c r="AP50" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ50" s="92"/>
+      <c r="AY50" s="2"/>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2899,11 +3400,11 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="N51" s="24"/>
-      <c r="O51" s="70" t="s">
+      <c r="O51" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="70"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="63"/>
       <c r="R51" s="25"/>
       <c r="S51" s="29"/>
       <c r="T51" s="29"/>
@@ -2921,11 +3422,15 @@
       <c r="AG51" s="42"/>
       <c r="AH51" s="42"/>
       <c r="AI51" s="1"/>
-      <c r="AJ51" s="46"/>
-      <c r="AK51" s="46"/>
+      <c r="AJ51" s="90"/>
+      <c r="AK51" s="90"/>
       <c r="AL51" s="2"/>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN51" s="22"/>
+      <c r="AP51" s="92"/>
+      <c r="AQ51" s="92"/>
+      <c r="AY51" s="2"/>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2939,9 +3444,9 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="N52" s="24"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="70"/>
-      <c r="Q52" s="70"/>
+      <c r="O52" s="63"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="63"/>
       <c r="R52" s="25"/>
       <c r="S52" s="29"/>
       <c r="T52" s="29"/>
@@ -2962,8 +3467,10 @@
       <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
       <c r="AL52" s="2"/>
-    </row>
-    <row r="53" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN52" s="22"/>
+      <c r="AY52" s="2"/>
+    </row>
+    <row r="53" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2997,15 +3504,17 @@
       <c r="AG53" s="42"/>
       <c r="AH53" s="42"/>
       <c r="AI53" s="1"/>
-      <c r="AJ53" s="46" t="s">
+      <c r="AJ53" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="AK53" s="47" t="s">
+      <c r="AK53" s="88" t="s">
         <v>39</v>
       </c>
       <c r="AL53" s="2"/>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN53" s="22"/>
+      <c r="AY53" s="2"/>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3019,11 +3528,11 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="N54" s="24"/>
-      <c r="O54" s="62" t="s">
+      <c r="O54" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="64"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="72"/>
       <c r="R54" s="25"/>
       <c r="S54" s="29"/>
       <c r="T54" s="29"/>
@@ -3041,11 +3550,13 @@
       <c r="AG54" s="42"/>
       <c r="AH54" s="42"/>
       <c r="AI54" s="1"/>
-      <c r="AJ54" s="46"/>
-      <c r="AK54" s="47"/>
+      <c r="AJ54" s="90"/>
+      <c r="AK54" s="88"/>
       <c r="AL54" s="2"/>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN54" s="22"/>
+      <c r="AY54" s="2"/>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3059,9 +3570,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="N55" s="24"/>
-      <c r="O55" s="65"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="67"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="75"/>
       <c r="R55" s="25"/>
       <c r="S55" s="29"/>
       <c r="T55" s="29"/>
@@ -3082,8 +3593,10 @@
       <c r="AJ55" s="3"/>
       <c r="AK55" s="3"/>
       <c r="AL55" s="2"/>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN55" s="22"/>
+      <c r="AY55" s="2"/>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3114,8 +3627,20 @@
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
       <c r="AL56" s="2"/>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN56" s="22"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+      <c r="AY56" s="2"/>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3146,8 +3671,20 @@
       <c r="AJ57" s="1"/>
       <c r="AK57" s="1"/>
       <c r="AL57" s="2"/>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN57" s="22"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="2"/>
+    </row>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3178,8 +3715,20 @@
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
       <c r="AL58" s="2"/>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN58" s="22"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1"/>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1"/>
+      <c r="AY58" s="2"/>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3210,8 +3759,20 @@
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
       <c r="AL59" s="2"/>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN59" s="22"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="2"/>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3242,8 +3803,20 @@
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
       <c r="AL60" s="2"/>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN60" s="22"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1"/>
+      <c r="AU60" s="1"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="1"/>
+      <c r="AX60" s="1"/>
+      <c r="AY60" s="2"/>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3280,8 +3853,20 @@
       <c r="AJ61" s="37"/>
       <c r="AK61" s="37"/>
       <c r="AL61" s="38"/>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN61" s="32"/>
+      <c r="AO61" s="43"/>
+      <c r="AP61" s="43"/>
+      <c r="AQ61" s="43"/>
+      <c r="AR61" s="43"/>
+      <c r="AS61" s="37"/>
+      <c r="AT61" s="37"/>
+      <c r="AU61" s="37"/>
+      <c r="AV61" s="37"/>
+      <c r="AW61" s="37"/>
+      <c r="AX61" s="37"/>
+      <c r="AY61" s="38"/>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3296,11 +3881,11 @@
       <c r="L62" s="3"/>
       <c r="N62" s="32"/>
       <c r="O62" s="36"/>
-      <c r="P62" s="43" t="s">
+      <c r="P62" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="Q62" s="43"/>
-      <c r="R62" s="43"/>
+      <c r="Q62" s="77"/>
+      <c r="R62" s="77"/>
       <c r="S62" s="37"/>
       <c r="T62" s="37"/>
       <c r="U62" s="37"/>
@@ -3310,11 +3895,11 @@
       <c r="Y62" s="38"/>
       <c r="AA62" s="32"/>
       <c r="AB62" s="36"/>
-      <c r="AC62" s="43" t="s">
+      <c r="AC62" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="AD62" s="43"/>
-      <c r="AE62" s="43"/>
+      <c r="AD62" s="77"/>
+      <c r="AE62" s="77"/>
       <c r="AF62" s="37"/>
       <c r="AG62" s="37"/>
       <c r="AH62" s="37"/>
@@ -3322,8 +3907,22 @@
       <c r="AJ62" s="37"/>
       <c r="AK62" s="37"/>
       <c r="AL62" s="38"/>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN62" s="32"/>
+      <c r="AO62" s="43"/>
+      <c r="AP62" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ62" s="77"/>
+      <c r="AR62" s="77"/>
+      <c r="AS62" s="37"/>
+      <c r="AT62" s="37"/>
+      <c r="AU62" s="37"/>
+      <c r="AV62" s="37"/>
+      <c r="AW62" s="37"/>
+      <c r="AX62" s="37"/>
+      <c r="AY62" s="38"/>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3338,9 +3937,9 @@
       <c r="L63" s="3"/>
       <c r="N63" s="32"/>
       <c r="O63" s="36"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="43"/>
+      <c r="P63" s="77"/>
+      <c r="Q63" s="77"/>
+      <c r="R63" s="77"/>
       <c r="S63" s="36"/>
       <c r="T63" s="36"/>
       <c r="U63" s="36"/>
@@ -3350,9 +3949,9 @@
       <c r="Y63" s="38"/>
       <c r="AA63" s="32"/>
       <c r="AB63" s="36"/>
-      <c r="AC63" s="43"/>
-      <c r="AD63" s="43"/>
-      <c r="AE63" s="43"/>
+      <c r="AC63" s="77"/>
+      <c r="AD63" s="77"/>
+      <c r="AE63" s="77"/>
       <c r="AF63" s="36"/>
       <c r="AG63" s="36"/>
       <c r="AH63" s="36"/>
@@ -3360,8 +3959,20 @@
       <c r="AJ63" s="36"/>
       <c r="AK63" s="36"/>
       <c r="AL63" s="38"/>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN63" s="32"/>
+      <c r="AO63" s="43"/>
+      <c r="AP63" s="77"/>
+      <c r="AQ63" s="77"/>
+      <c r="AR63" s="77"/>
+      <c r="AS63" s="43"/>
+      <c r="AT63" s="43"/>
+      <c r="AU63" s="43"/>
+      <c r="AV63" s="43"/>
+      <c r="AW63" s="43"/>
+      <c r="AX63" s="43"/>
+      <c r="AY63" s="38"/>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3376,50 +3987,72 @@
       <c r="L64" s="3"/>
       <c r="N64" s="32"/>
       <c r="O64" s="36"/>
-      <c r="P64" s="43" t="s">
+      <c r="P64" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
+      <c r="Q64" s="77"/>
+      <c r="R64" s="77"/>
       <c r="S64" s="36"/>
       <c r="T64" s="36"/>
-      <c r="U64" s="43" t="s">
+      <c r="U64" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="V64" s="43" t="s">
+      <c r="V64" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="W64" s="43" t="s">
+      <c r="W64" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="X64" s="43" t="s">
+      <c r="X64" s="77" t="s">
         <v>33</v>
       </c>
       <c r="Y64" s="38"/>
       <c r="AA64" s="32"/>
       <c r="AB64" s="36"/>
-      <c r="AC64" s="43" t="s">
+      <c r="AC64" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="AD64" s="43"/>
-      <c r="AE64" s="43"/>
+      <c r="AD64" s="77"/>
+      <c r="AE64" s="77"/>
       <c r="AF64" s="36"/>
       <c r="AG64" s="36"/>
-      <c r="AH64" s="43" t="s">
+      <c r="AH64" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AI64" s="43" t="s">
+      <c r="AI64" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="AJ64" s="43" t="s">
+      <c r="AJ64" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="AK64" s="43" t="s">
+      <c r="AK64" s="77" t="s">
         <v>33</v>
       </c>
       <c r="AL64" s="38"/>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN64" s="32"/>
+      <c r="AO64" s="43"/>
+      <c r="AP64" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ64" s="77"/>
+      <c r="AR64" s="77"/>
+      <c r="AS64" s="43"/>
+      <c r="AT64" s="43"/>
+      <c r="AU64" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV64" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW64" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX64" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY64" s="38"/>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3434,34 +4067,48 @@
       <c r="L65" s="3"/>
       <c r="N65" s="32"/>
       <c r="O65" s="36"/>
-      <c r="P65" s="43" t="s">
+      <c r="P65" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
+      <c r="Q65" s="77"/>
+      <c r="R65" s="77"/>
       <c r="S65" s="36"/>
       <c r="T65" s="36"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="43"/>
-      <c r="W65" s="43"/>
-      <c r="X65" s="43"/>
+      <c r="U65" s="77"/>
+      <c r="V65" s="77"/>
+      <c r="W65" s="77"/>
+      <c r="X65" s="77"/>
       <c r="Y65" s="38"/>
       <c r="AA65" s="32"/>
       <c r="AB65" s="36"/>
-      <c r="AC65" s="43" t="s">
+      <c r="AC65" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="AD65" s="43"/>
-      <c r="AE65" s="43"/>
+      <c r="AD65" s="77"/>
+      <c r="AE65" s="77"/>
       <c r="AF65" s="36"/>
       <c r="AG65" s="36"/>
-      <c r="AH65" s="43"/>
-      <c r="AI65" s="43"/>
-      <c r="AJ65" s="43"/>
-      <c r="AK65" s="43"/>
+      <c r="AH65" s="77"/>
+      <c r="AI65" s="77"/>
+      <c r="AJ65" s="77"/>
+      <c r="AK65" s="77"/>
       <c r="AL65" s="38"/>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN65" s="32"/>
+      <c r="AO65" s="43"/>
+      <c r="AP65" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ65" s="77"/>
+      <c r="AR65" s="77"/>
+      <c r="AS65" s="43"/>
+      <c r="AT65" s="43"/>
+      <c r="AU65" s="77"/>
+      <c r="AV65" s="77"/>
+      <c r="AW65" s="77"/>
+      <c r="AX65" s="77"/>
+      <c r="AY65" s="38"/>
+    </row>
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3476,11 +4123,11 @@
       <c r="L66" s="3"/>
       <c r="N66" s="32"/>
       <c r="O66" s="36"/>
-      <c r="P66" s="43" t="s">
+      <c r="P66" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
+      <c r="Q66" s="77"/>
+      <c r="R66" s="77"/>
       <c r="S66" s="36"/>
       <c r="T66" s="36"/>
       <c r="U66" s="36"/>
@@ -3490,11 +4137,11 @@
       <c r="Y66" s="38"/>
       <c r="AA66" s="32"/>
       <c r="AB66" s="36"/>
-      <c r="AC66" s="43" t="s">
+      <c r="AC66" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AD66" s="43"/>
-      <c r="AE66" s="43"/>
+      <c r="AD66" s="77"/>
+      <c r="AE66" s="77"/>
       <c r="AF66" s="36"/>
       <c r="AG66" s="36"/>
       <c r="AH66" s="36"/>
@@ -3502,8 +4149,22 @@
       <c r="AJ66" s="36"/>
       <c r="AK66" s="36"/>
       <c r="AL66" s="38"/>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN66" s="32"/>
+      <c r="AO66" s="43"/>
+      <c r="AP66" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ66" s="77"/>
+      <c r="AR66" s="77"/>
+      <c r="AS66" s="43"/>
+      <c r="AT66" s="43"/>
+      <c r="AU66" s="43"/>
+      <c r="AV66" s="43"/>
+      <c r="AW66" s="43"/>
+      <c r="AX66" s="43"/>
+      <c r="AY66" s="38"/>
+    </row>
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3540,8 +4201,20 @@
       <c r="AJ67" s="36"/>
       <c r="AK67" s="36"/>
       <c r="AL67" s="38"/>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN67" s="32"/>
+      <c r="AO67" s="43"/>
+      <c r="AP67" s="43"/>
+      <c r="AQ67" s="43"/>
+      <c r="AR67" s="43"/>
+      <c r="AS67" s="43"/>
+      <c r="AT67" s="43"/>
+      <c r="AU67" s="43"/>
+      <c r="AV67" s="43"/>
+      <c r="AW67" s="43"/>
+      <c r="AX67" s="43"/>
+      <c r="AY67" s="38"/>
+    </row>
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3578,8 +4251,20 @@
       <c r="AJ68" s="34"/>
       <c r="AK68" s="34"/>
       <c r="AL68" s="35"/>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN68" s="33"/>
+      <c r="AO68" s="34"/>
+      <c r="AP68" s="34"/>
+      <c r="AQ68" s="34"/>
+      <c r="AR68" s="34"/>
+      <c r="AS68" s="34"/>
+      <c r="AT68" s="34"/>
+      <c r="AU68" s="34"/>
+      <c r="AV68" s="34"/>
+      <c r="AW68" s="34"/>
+      <c r="AX68" s="34"/>
+      <c r="AY68" s="35"/>
+    </row>
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3605,7 +4290,7 @@
       <c r="AK69" s="23"/>
       <c r="AL69" s="23"/>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3631,7 +4316,7 @@
       <c r="AK70" s="23"/>
       <c r="AL70" s="23"/>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3657,7 +4342,7 @@
       <c r="AK71" s="23"/>
       <c r="AL71" s="23"/>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3683,7 +4368,7 @@
       <c r="AK72" s="23"/>
       <c r="AL72" s="23"/>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3709,7 +4394,7 @@
       <c r="AK73" s="23"/>
       <c r="AL73" s="23"/>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3735,7 +4420,7 @@
       <c r="AK74" s="23"/>
       <c r="AL74" s="23"/>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3761,7 +4446,7 @@
       <c r="AK75" s="23"/>
       <c r="AL75" s="23"/>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3787,7 +4472,7 @@
       <c r="AK76" s="23"/>
       <c r="AL76" s="23"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3813,7 +4498,7 @@
       <c r="AK77" s="23"/>
       <c r="AL77" s="23"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3839,7 +4524,7 @@
       <c r="AK78" s="23"/>
       <c r="AL78" s="23"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3865,7 +4550,7 @@
       <c r="AK79" s="23"/>
       <c r="AL79" s="23"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
       <c r="L80" s="3"/>
       <c r="AA80" s="23"/>
       <c r="AB80" s="23"/>
@@ -3884,65 +4569,26 @@
       <c r="L81" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="G20:K27"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="B14:C16"/>
-    <mergeCell ref="O11:Q14"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="N4:O6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="O21:Q22"/>
-    <mergeCell ref="P33:R35"/>
-    <mergeCell ref="V28:X31"/>
-    <mergeCell ref="V33:X34"/>
-    <mergeCell ref="V35:X36"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="U64:U65"/>
-    <mergeCell ref="V38:X39"/>
-    <mergeCell ref="O44:Q47"/>
-    <mergeCell ref="T47:W49"/>
-    <mergeCell ref="O49:Q50"/>
-    <mergeCell ref="O51:Q52"/>
-    <mergeCell ref="AI64:AI65"/>
-    <mergeCell ref="O54:Q55"/>
-    <mergeCell ref="P62:R63"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="V64:V65"/>
-    <mergeCell ref="W64:W65"/>
-    <mergeCell ref="X64:X65"/>
-    <mergeCell ref="AA4:AB6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AC62:AE63"/>
-    <mergeCell ref="AC64:AE64"/>
-    <mergeCell ref="AH64:AH65"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="T14:W16"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="AJ4:AJ6"/>
-    <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="AL4:AL6"/>
-    <mergeCell ref="AD7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="AK38:AK39"/>
-    <mergeCell ref="AJ13:AK14"/>
-    <mergeCell ref="AJ16:AK17"/>
-    <mergeCell ref="AJ18:AK19"/>
-    <mergeCell ref="AJ20:AK21"/>
-    <mergeCell ref="AJ23:AJ24"/>
-    <mergeCell ref="AK23:AK24"/>
+  <mergeCells count="93">
+    <mergeCell ref="AX64:AX65"/>
+    <mergeCell ref="AP65:AR65"/>
+    <mergeCell ref="AP66:AR66"/>
+    <mergeCell ref="AP10:AW12"/>
+    <mergeCell ref="AP16:AW18"/>
+    <mergeCell ref="AP21:AW23"/>
+    <mergeCell ref="AP26:AW42"/>
+    <mergeCell ref="AP50:AQ51"/>
+    <mergeCell ref="AP62:AR63"/>
+    <mergeCell ref="AP64:AR64"/>
+    <mergeCell ref="AU64:AU65"/>
+    <mergeCell ref="AV64:AV65"/>
+    <mergeCell ref="AW64:AW65"/>
+    <mergeCell ref="AY4:AY6"/>
+    <mergeCell ref="AN4:AO6"/>
+    <mergeCell ref="AU4:AU6"/>
+    <mergeCell ref="AV4:AV6"/>
+    <mergeCell ref="AW4:AW6"/>
+    <mergeCell ref="AX4:AX6"/>
     <mergeCell ref="AJ64:AJ65"/>
     <mergeCell ref="AK64:AK65"/>
     <mergeCell ref="AC65:AE65"/>
@@ -3959,6 +4605,64 @@
     <mergeCell ref="AJ33:AK34"/>
     <mergeCell ref="AJ35:AK36"/>
     <mergeCell ref="AJ38:AJ39"/>
+    <mergeCell ref="AK38:AK39"/>
+    <mergeCell ref="AJ13:AK14"/>
+    <mergeCell ref="AJ16:AK17"/>
+    <mergeCell ref="AJ18:AK19"/>
+    <mergeCell ref="AJ20:AK21"/>
+    <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="AK23:AK24"/>
+    <mergeCell ref="AJ4:AJ6"/>
+    <mergeCell ref="AK4:AK6"/>
+    <mergeCell ref="AL4:AL6"/>
+    <mergeCell ref="AD7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="T14:W16"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="AA4:AB6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AC62:AE63"/>
+    <mergeCell ref="AC64:AE64"/>
+    <mergeCell ref="AH64:AH65"/>
+    <mergeCell ref="AI64:AI65"/>
+    <mergeCell ref="O54:Q55"/>
+    <mergeCell ref="P62:R63"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="V64:V65"/>
+    <mergeCell ref="W64:W65"/>
+    <mergeCell ref="X64:X65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="U64:U65"/>
+    <mergeCell ref="V38:X39"/>
+    <mergeCell ref="O44:Q47"/>
+    <mergeCell ref="T47:W49"/>
+    <mergeCell ref="O49:Q50"/>
+    <mergeCell ref="O51:Q52"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="O21:Q22"/>
+    <mergeCell ref="P33:R35"/>
+    <mergeCell ref="V28:X31"/>
+    <mergeCell ref="V33:X34"/>
+    <mergeCell ref="V35:X36"/>
+    <mergeCell ref="O11:Q14"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="N4:O6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G20:K27"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="B14:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
